--- a/c19-read-write-excel/file1.xlsx
+++ b/c19-read-write-excel/file1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet One" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet Two" sheetId="2" relationships:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -15,7 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,8 +24,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b>true</b>
+      <color rgb="FF000000"/>
+      <sz val="36"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -37,8 +46,21 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EBF5"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -50,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -322,7 +347,7 @@
   <sheetPr filterMode="true"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -374,4 +399,23 @@
   <autoFilter ref="A1:C1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>Hello</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+</worksheet>
 </file>